--- a/review2/RoughSchema.xlsx
+++ b/review2/RoughSchema.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>Group - 17</t>
   </si>
@@ -68,16 +68,13 @@
     <t>Doc_id(pk)</t>
   </si>
   <si>
-    <t>file_extension</t>
+    <t>user_id(fk)</t>
   </si>
   <si>
     <t>file_name</t>
   </si>
   <si>
     <t>file_size</t>
-  </si>
-  <si>
-    <t>user_id(fk)</t>
   </si>
   <si>
     <t>Trigger</t>
@@ -97,10 +94,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -126,40 +123,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,6 +185,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -188,16 +237,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -206,43 +247,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -251,13 +255,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,61 +287,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,7 +395,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,66 +431,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -465,12 +468,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,6 +511,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -529,15 +544,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -549,15 +555,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,8 +577,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,148 +596,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1090,7 +1087,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1245,9 +1242,7 @@
       <c r="G9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -1268,10 +1263,10 @@
     </row>
     <row r="11" s="1" customFormat="1" spans="1:12">
       <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>16</v>
@@ -1288,9 +1283,7 @@
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -1311,10 +1304,10 @@
     </row>
     <row r="13" s="1" customFormat="1" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>7</v>
@@ -1344,7 +1337,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="2:2">

--- a/review2/RoughSchema.xlsx
+++ b/review2/RoughSchema.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>Group - 17</t>
   </si>
@@ -68,7 +68,7 @@
     <t>Doc_id(pk)</t>
   </si>
   <si>
-    <t>file_extension</t>
+    <t>user_id(fk)</t>
   </si>
   <si>
     <t>file_name</t>
@@ -77,7 +77,13 @@
     <t>file_size</t>
   </si>
   <si>
-    <t>user_id(fk)</t>
+    <t>recently_shared_doc</t>
+  </si>
+  <si>
+    <t>shared_doc_id(pk)</t>
+  </si>
+  <si>
+    <t>Doc_id(fk)</t>
   </si>
   <si>
     <t>Trigger</t>
@@ -97,10 +103,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -120,6 +126,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -128,30 +164,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,7 +203,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,68 +239,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,13 +296,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,7 +356,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,157 +428,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,17 +505,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,11 +547,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,15 +573,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,15 +594,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -599,148 +605,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1087,16 +1093,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="18.7142857142857" customWidth="1"/>
-    <col min="3" max="12" width="15.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="21.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="12" width="15.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="2:3">
@@ -1245,56 +1252,51 @@
       <c r="G9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:12">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:12">
-      <c r="A11" s="1" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="2:12">
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="2:12">
       <c r="B12" s="7"/>
@@ -1311,52 +1313,94 @@
     </row>
     <row r="13" s="1" customFormat="1" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="2:12">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:12">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="B15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="8"/>
+      <c r="L15" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="C6:L6"/>
     <mergeCell ref="C8:L8"/>
-    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="B10:K10"/>
     <mergeCell ref="C12:L12"/>
+    <mergeCell ref="C14:L14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
